--- a/analysis/ExData/Questionnaire/CutData/Mean_Agency.xlsx
+++ b/analysis/ExData/Questionnaire/CutData/Mean_Agency.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="17">
   <si>
     <t>Participant</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>robot velocity</t>
+  </si>
+  <si>
+    <t>mean</t>
   </si>
 </sst>
 </file>
@@ -449,8 +452,8 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2">
-        <v>3</v>
+      <c r="D2" t="s">
+        <v>16</v>
       </c>
       <c r="E2">
         <v>17.83333333333333</v>
@@ -466,8 +469,8 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3">
-        <v>3</v>
+      <c r="D3" t="s">
+        <v>16</v>
       </c>
       <c r="E3">
         <v>12</v>
@@ -483,8 +486,8 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4">
-        <v>3</v>
+      <c r="D4" t="s">
+        <v>16</v>
       </c>
       <c r="E4">
         <v>16.83333333333333</v>
@@ -500,8 +503,8 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5">
-        <v>3</v>
+      <c r="D5" t="s">
+        <v>16</v>
       </c>
       <c r="E5">
         <v>23.66666666666667</v>
@@ -517,8 +520,8 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6">
-        <v>3</v>
+      <c r="D6" t="s">
+        <v>16</v>
       </c>
       <c r="E6">
         <v>18</v>
@@ -534,8 +537,8 @@
       <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7">
-        <v>3</v>
+      <c r="D7" t="s">
+        <v>16</v>
       </c>
       <c r="E7">
         <v>26.5</v>
@@ -551,8 +554,8 @@
       <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8">
-        <v>3</v>
+      <c r="D8" t="s">
+        <v>16</v>
       </c>
       <c r="E8">
         <v>82.16666666666667</v>
@@ -568,8 +571,8 @@
       <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9">
-        <v>3</v>
+      <c r="D9" t="s">
+        <v>16</v>
       </c>
       <c r="E9">
         <v>72.66666666666667</v>
@@ -585,8 +588,8 @@
       <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D10">
-        <v>3</v>
+      <c r="D10" t="s">
+        <v>16</v>
       </c>
       <c r="E10">
         <v>77.33333333333333</v>
@@ -602,8 +605,8 @@
       <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D11">
-        <v>3</v>
+      <c r="D11" t="s">
+        <v>16</v>
       </c>
       <c r="E11">
         <v>14</v>
@@ -619,8 +622,8 @@
       <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="D12">
-        <v>3</v>
+      <c r="D12" t="s">
+        <v>16</v>
       </c>
       <c r="E12">
         <v>-5.666666666666667</v>
@@ -636,8 +639,8 @@
       <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D13">
-        <v>3</v>
+      <c r="D13" t="s">
+        <v>16</v>
       </c>
       <c r="E13">
         <v>11</v>
@@ -653,8 +656,8 @@
       <c r="C14" t="s">
         <v>13</v>
       </c>
-      <c r="D14">
-        <v>3</v>
+      <c r="D14" t="s">
+        <v>16</v>
       </c>
       <c r="E14">
         <v>2.5</v>
@@ -670,8 +673,8 @@
       <c r="C15" t="s">
         <v>14</v>
       </c>
-      <c r="D15">
-        <v>3</v>
+      <c r="D15" t="s">
+        <v>16</v>
       </c>
       <c r="E15">
         <v>-5.5</v>
@@ -687,8 +690,8 @@
       <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="D16">
-        <v>3</v>
+      <c r="D16" t="s">
+        <v>16</v>
       </c>
       <c r="E16">
         <v>-7.833333333333333</v>
@@ -704,8 +707,8 @@
       <c r="C17" t="s">
         <v>13</v>
       </c>
-      <c r="D17">
-        <v>3</v>
+      <c r="D17" t="s">
+        <v>16</v>
       </c>
       <c r="E17">
         <v>28</v>
@@ -721,8 +724,8 @@
       <c r="C18" t="s">
         <v>14</v>
       </c>
-      <c r="D18">
-        <v>3</v>
+      <c r="D18" t="s">
+        <v>16</v>
       </c>
       <c r="E18">
         <v>25.16666666666667</v>
@@ -738,8 +741,8 @@
       <c r="C19" t="s">
         <v>15</v>
       </c>
-      <c r="D19">
-        <v>3</v>
+      <c r="D19" t="s">
+        <v>16</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -755,8 +758,8 @@
       <c r="C20" t="s">
         <v>13</v>
       </c>
-      <c r="D20">
-        <v>3</v>
+      <c r="D20" t="s">
+        <v>16</v>
       </c>
       <c r="E20">
         <v>22.83333333333333</v>
@@ -772,8 +775,8 @@
       <c r="C21" t="s">
         <v>14</v>
       </c>
-      <c r="D21">
-        <v>3</v>
+      <c r="D21" t="s">
+        <v>16</v>
       </c>
       <c r="E21">
         <v>25</v>
@@ -789,8 +792,8 @@
       <c r="C22" t="s">
         <v>15</v>
       </c>
-      <c r="D22">
-        <v>3</v>
+      <c r="D22" t="s">
+        <v>16</v>
       </c>
       <c r="E22">
         <v>17.83333333333333</v>
@@ -806,8 +809,8 @@
       <c r="C23" t="s">
         <v>13</v>
       </c>
-      <c r="D23">
-        <v>3</v>
+      <c r="D23" t="s">
+        <v>16</v>
       </c>
       <c r="E23">
         <v>-8.166666666666666</v>
@@ -823,8 +826,8 @@
       <c r="C24" t="s">
         <v>14</v>
       </c>
-      <c r="D24">
-        <v>3</v>
+      <c r="D24" t="s">
+        <v>16</v>
       </c>
       <c r="E24">
         <v>19.5</v>
@@ -840,8 +843,8 @@
       <c r="C25" t="s">
         <v>15</v>
       </c>
-      <c r="D25">
-        <v>3</v>
+      <c r="D25" t="s">
+        <v>16</v>
       </c>
       <c r="E25">
         <v>14.16666666666667</v>
@@ -857,8 +860,8 @@
       <c r="C26" t="s">
         <v>13</v>
       </c>
-      <c r="D26">
-        <v>3</v>
+      <c r="D26" t="s">
+        <v>16</v>
       </c>
       <c r="E26">
         <v>-33.5</v>
@@ -874,8 +877,8 @@
       <c r="C27" t="s">
         <v>14</v>
       </c>
-      <c r="D27">
-        <v>3</v>
+      <c r="D27" t="s">
+        <v>16</v>
       </c>
       <c r="E27">
         <v>-30.66666666666667</v>
@@ -891,8 +894,8 @@
       <c r="C28" t="s">
         <v>15</v>
       </c>
-      <c r="D28">
-        <v>3</v>
+      <c r="D28" t="s">
+        <v>16</v>
       </c>
       <c r="E28">
         <v>-26.83333333333333</v>

--- a/analysis/ExData/Questionnaire/CutData/Mean_Agency.xlsx
+++ b/analysis/ExData/Questionnaire/CutData/Mean_Agency.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="18">
   <si>
     <t>Participant</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Kato</t>
+  </si>
+  <si>
+    <t>Kawai</t>
   </si>
   <si>
     <t>Kitamichi</t>
@@ -422,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,10 +453,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>17.83333333333333</v>
@@ -467,10 +470,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>12</v>
@@ -484,10 +487,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>16.83333333333333</v>
@@ -501,10 +504,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>23.66666666666667</v>
@@ -518,10 +521,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>18</v>
@@ -535,10 +538,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>26.5</v>
@@ -552,10 +555,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>82.16666666666667</v>
@@ -569,10 +572,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>72.66666666666667</v>
@@ -586,10 +589,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>77.33333333333333</v>
@@ -603,13 +606,13 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -620,13 +623,13 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12">
-        <v>-5.666666666666667</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -637,13 +640,13 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13">
-        <v>11</v>
+        <v>35.16666666666666</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -654,13 +657,13 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14">
-        <v>2.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -671,13 +674,13 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E15">
-        <v>-5.5</v>
+        <v>-5.666666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -688,13 +691,13 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E16">
-        <v>-7.833333333333333</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -705,13 +708,13 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E17">
-        <v>28</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -722,13 +725,13 @@
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E18">
-        <v>25.16666666666667</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -739,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E19">
-        <v>18</v>
+        <v>-7.833333333333333</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -756,13 +759,13 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E20">
-        <v>22.83333333333333</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -773,13 +776,13 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E21">
-        <v>25</v>
+        <v>25.16666666666667</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -790,13 +793,13 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E22">
-        <v>17.83333333333333</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -807,13 +810,13 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E23">
-        <v>-8.166666666666666</v>
+        <v>22.83333333333333</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -824,13 +827,13 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E24">
-        <v>19.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -841,13 +844,13 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E25">
-        <v>14.16666666666667</v>
+        <v>17.83333333333333</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -858,13 +861,13 @@
         <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E26">
-        <v>-33.5</v>
+        <v>-8.166666666666666</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -875,13 +878,13 @@
         <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E27">
-        <v>-30.66666666666667</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -892,12 +895,63 @@
         <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E28">
+        <v>14.16666666666667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29">
+        <v>-33.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30">
+        <v>-30.66666666666667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31">
         <v>-26.83333333333333</v>
       </c>
     </row>
